--- a/output/Congo, The Democratic Republic of the_unformatted.xlsx
+++ b/output/Congo, The Democratic Republic of the_unformatted.xlsx
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BM26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="BM27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="BM28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="BM42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="BM43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
